--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2023 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A513CE8-B71B-BC42-997A-49D212B2897A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81F119A-5AFD-714A-8F6D-D1ED92F3995A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="10260" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="7340" yWindow="10320" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -210,6 +210,12 @@
   </si>
   <si>
     <t>No Meetup - Spring Recess</t>
+  </si>
+  <si>
+    <t>a_EtNL6rGl4</t>
+  </si>
+  <si>
+    <t>00-Intro_to_Course</t>
   </si>
 </sst>
 </file>
@@ -597,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA12B6D5-EAC3-1C40-AC8A-3C6A227098E4}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -654,6 +660,12 @@
       <c r="E2" t="s">
         <v>29</v>
       </c>
+      <c r="F2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -932,8 +944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD67FB80-52EB-7F41-88A6-58F30ED23B0C}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2023 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81F119A-5AFD-714A-8F6D-D1ED92F3995A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8F5A75-9CE5-6A4F-98CC-C3A1D2894114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7340" yWindow="10320" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="62">
   <si>
     <t>Date</t>
   </si>
@@ -216,6 +216,12 @@
   </si>
   <si>
     <t>00-Intro_to_Course</t>
+  </si>
+  <si>
+    <t>9XK-Caj35lM</t>
+  </si>
+  <si>
+    <t>01-Intro_to_Data</t>
   </si>
 </sst>
 </file>
@@ -683,6 +689,12 @@
       <c r="E3" t="s">
         <v>29</v>
       </c>
+      <c r="F3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2023 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8F5A75-9CE5-6A4F-98CC-C3A1D2894114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2777E5F4-6C16-6B46-B8EE-CE3FDFE928CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7340" yWindow="10320" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="65">
   <si>
     <t>Date</t>
   </si>
@@ -222,6 +222,17 @@
   </si>
   <si>
     <t>01-Intro_to_Data</t>
+  </si>
+  <si>
+    <t>02-Summarizing_Data1</t>
+  </si>
+  <si>
+    <t>JJ Alaire's talk on corporations: https://www.youtube.com/watch?v=DskltmWKOVY
+lubridate R package is great if you work with dates: https://lubridate.tidyverse.org
+Mandelbrot sets in R: https://github.com/blmoore/mandelbrot (one use for the complex data type).</t>
+  </si>
+  <si>
+    <t>-XEu1tAgklc</t>
   </si>
 </sst>
 </file>
@@ -233,7 +244,7 @@
     <numFmt numFmtId="165" formatCode="mmm\ dd"/>
     <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -244,6 +255,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -266,10 +285,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -293,8 +313,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -610,7 +633,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -619,9 +642,9 @@
     <col min="2" max="3" width="18.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="9" customWidth="1"/>
     <col min="7" max="7" width="33.6640625" customWidth="1"/>
-    <col min="8" max="8" width="23.1640625" customWidth="1"/>
+    <col min="8" max="8" width="54" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -640,7 +663,7 @@
       <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="9" t="s">
         <v>48</v>
       </c>
       <c r="G1" t="s">
@@ -666,7 +689,7 @@
       <c r="E2" t="s">
         <v>29</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="9" t="s">
         <v>58</v>
       </c>
       <c r="G2" t="s">
@@ -689,14 +712,14 @@
       <c r="E3" t="s">
         <v>29</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="9" t="s">
         <v>60</v>
       </c>
       <c r="G3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44965</v>
       </c>
@@ -711,6 +734,15 @@
       </c>
       <c r="E4" t="s">
         <v>29</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -947,6 +979,9 @@
       <c r="H18" s="7"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F4" r:id="rId1" display="https://youtu.be/-XEu1tAgklc" xr:uid="{A97E6126-EFC2-8541-B74B-6FE3B5C8D70D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2023 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2777E5F4-6C16-6B46-B8EE-CE3FDFE928CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A0E715-8DC3-9048-9645-0E4A628D5FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7340" yWindow="10320" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="2960" yWindow="10280" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="68">
   <si>
     <t>Date</t>
   </si>
@@ -227,12 +227,61 @@
     <t>02-Summarizing_Data1</t>
   </si>
   <si>
-    <t>JJ Alaire's talk on corporations: https://www.youtube.com/watch?v=DskltmWKOVY
-lubridate R package is great if you work with dates: https://lubridate.tidyverse.org
+    <t>-XEu1tAgklc</t>
+  </si>
+  <si>
+    <t>02-Summarizing_Data2</t>
+  </si>
+  <si>
+    <t>JJ Alaire's talk on corporations: https://www.youtube.com/watch?v=DskltmWKOVY &lt;br /&gt;
+lubridate R package is great if you work with dates: https://lubridate.tidyverse.org &lt;br /&gt;
 Mandelbrot sets in R: https://github.com/blmoore/mandelbrot (one use for the complex data type).</t>
   </si>
   <si>
-    <t>-XEu1tAgklc</t>
+    <t>&lt;pre&gt;
+my_formula &lt;- y ~ m * x + b
+class(my_formula)
+my_formula
+all.vars(my_formula)
+data(mtcars)
+mtcars_formula &lt;- mpg ~ wt + cyl
+mtcars$cyl &lt;- as.factor(mtcars$cyl)
+mtcars[,all.vars(mtcars_formula)]
+mtcars[,all.vars(mtcars_formula)[1]]
+mm &lt;- model.matrix(mtcars_formula, data = mtcars)
+class(mm)
+boxplot(mtcars$mpg)
+boxplot(mpg ~ cyl, data = mtcars)
+library(ggplot2)
+mean_pieces &lt;- mean(legosets$pieces, na.rm = TRUE)
+ggplot() + 
+	geom_hline(yintercept = mean(legosets$US_retailPrice, na.rm = TRUE)) +
+	geom_vline(xintercept = mean_pieces) +
+	geom_point(data = legosets, 
+			   aes(x=pieces, y=US_retailPrice, color=availability))
+desc &lt;- psych::describeBy(legosets$pieces,
+						 group = legosets$availability,
+						 mat = TRUE, skew = FALSE)
+desc
+ggplot() +
+	geom_boxplot(data = legosets, aes(x = availability, y = pieces)) +
+	# geom_vline(xintercept = mean(legosets$pieces, na.rm = TRUE)) + 
+	geom_errorbar(data = desc, aes(x = group1, ymin = mean - se, ymax = mean + se), 
+				  color = 'darkgreen') +
+	geom_point(data = desc, aes(x = group1, y = mean), 
+			   color = 'blue', size = 3) +
+	scale_y_log10() + 
+	# coord_flip()
+	theme_minimal() +
+	theme(axis.text.x = element_text(angle = 45))
+ggplot(legosets, aes(x = US_retailPrice)) + geom_histogram(binwidth = 20)
+ggplot(legosets, aes(x = US_retailPrice)) + 
+	geom_density(color = 'blue') + 
+	scale_x_log10()
+&lt;/pre&gt;</t>
+  </si>
+  <si>
+    <t>JbwZmNcwvmU</t>
   </si>
 </sst>
 </file>
@@ -633,7 +682,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -736,13 +785,13 @@
         <v>29</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
         <v>62</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -761,7 +810,15 @@
       <c r="E5" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="7"/>
+      <c r="F5" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2023 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A0E715-8DC3-9048-9645-0E4A628D5FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A7E9AD-4043-474F-B80D-85F39CFF0DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2960" yWindow="10280" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="70">
   <si>
     <t>Date</t>
   </si>
@@ -282,6 +282,12 @@
   </si>
   <si>
     <t>JbwZmNcwvmU</t>
+  </si>
+  <si>
+    <t>03-Probability</t>
+  </si>
+  <si>
+    <t>8qcr0Xzp0b4</t>
   </si>
 </sst>
 </file>
@@ -682,7 +688,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -835,6 +841,12 @@
       </c>
       <c r="E6" t="s">
         <v>29</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" t="s">
+        <v>68</v>
       </c>
       <c r="H6" s="6"/>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2023 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A7E9AD-4043-474F-B80D-85F39CFF0DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B0447F-F075-0640-98F8-D82499463B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2960" yWindow="10280" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="73">
   <si>
     <t>Date</t>
   </si>
@@ -288,6 +288,16 @@
   </si>
   <si>
     <t>8qcr0Xzp0b4</t>
+  </si>
+  <si>
+    <t>On the Dangers of Stochastic Parrots: Can Language Models Be Too Big? https://dl.acm.org/doi/10.1145/3442188.3445922 &lt;br/&gt;
+Last Week Tonight segement on AI and ChatGPT: https://www.youtube.com/watch?v=Sqa8Zo2XWc4</t>
+  </si>
+  <si>
+    <t>04-Distributions</t>
+  </si>
+  <si>
+    <t>8lfNosMuAqw</t>
   </si>
 </sst>
 </file>
@@ -688,7 +698,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -850,7 +860,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44986</v>
       </c>
@@ -865,6 +875,15 @@
       </c>
       <c r="E7" t="s">
         <v>29</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2023 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B0447F-F075-0640-98F8-D82499463B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B592EAE3-8B00-9443-AC9F-D9467B976AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2960" yWindow="10280" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="75">
   <si>
     <t>Date</t>
   </si>
@@ -298,6 +298,12 @@
   </si>
   <si>
     <t>8lfNosMuAqw</t>
+  </si>
+  <si>
+    <t>05-Foundation_for_Inference</t>
+  </si>
+  <si>
+    <t>Ik7Xg7typOQ</t>
   </si>
 </sst>
 </file>
@@ -698,7 +704,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -901,6 +907,12 @@
       </c>
       <c r="E8" t="s">
         <v>29</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" t="s">
+        <v>73</v>
       </c>
       <c r="H8" s="8"/>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2023 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B592EAE3-8B00-9443-AC9F-D9467B976AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25207F82-CD71-204A-BAC5-11E452814C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2960" yWindow="10280" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="77">
   <si>
     <t>Date</t>
   </si>
@@ -304,6 +304,12 @@
   </si>
   <si>
     <t>Ik7Xg7typOQ</t>
+  </si>
+  <si>
+    <t>06-Inference_for_Categorical_Data</t>
+  </si>
+  <si>
+    <t>zrw8TWCvw2w</t>
   </si>
 </sst>
 </file>
@@ -932,6 +938,12 @@
       <c r="E9" t="s">
         <v>29</v>
       </c>
+      <c r="F9" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" t="s">
+        <v>75</v>
+      </c>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2023 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25207F82-CD71-204A-BAC5-11E452814C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B8B96F-56A8-3D40-8AAD-DDA33305DCB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2960" yWindow="10280" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="79">
   <si>
     <t>Date</t>
   </si>
@@ -310,6 +310,12 @@
   </si>
   <si>
     <t>zrw8TWCvw2w</t>
+  </si>
+  <si>
+    <t>9ToDqgHvBjA</t>
+  </si>
+  <si>
+    <t>07-Inference_for_Numerical_Data</t>
   </si>
 </sst>
 </file>
@@ -710,7 +716,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -961,6 +967,12 @@
       </c>
       <c r="E10" t="s">
         <v>29</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" t="s">
+        <v>78</v>
       </c>
       <c r="H10" s="6"/>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2023 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B8B96F-56A8-3D40-8AAD-DDA33305DCB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97F28A3-B2F3-9840-8B5D-97AB9CA9295D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2960" yWindow="10280" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="12420" yWindow="7220" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="81">
   <si>
     <t>Date</t>
   </si>
@@ -316,6 +316,12 @@
   </si>
   <si>
     <t>07-Inference_for_Numerical_Data</t>
+  </si>
+  <si>
+    <t>08-Linear_Regression</t>
+  </si>
+  <si>
+    <t>y4lyjfzUt04</t>
   </si>
 </sst>
 </file>
@@ -716,7 +722,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -991,6 +997,12 @@
       </c>
       <c r="E11" t="s">
         <v>29</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" t="s">
+        <v>79</v>
       </c>
       <c r="H11" s="6"/>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2023 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97F28A3-B2F3-9840-8B5D-97AB9CA9295D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F714E3C4-8EC3-A847-8F88-0DD4B2CDFB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12420" yWindow="7220" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="83">
   <si>
     <t>Date</t>
   </si>
@@ -322,6 +322,12 @@
   </si>
   <si>
     <t>y4lyjfzUt04</t>
+  </si>
+  <si>
+    <t>08-Linear_Regression2</t>
+  </si>
+  <si>
+    <t>uTMAlvDlWAo</t>
   </si>
 </sst>
 </file>
@@ -722,7 +728,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F14" sqref="F14:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1039,6 +1045,12 @@
       </c>
       <c r="E14" t="s">
         <v>29</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" t="s">
+        <v>81</v>
       </c>
       <c r="H14" s="6"/>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2023 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F714E3C4-8EC3-A847-8F88-0DD4B2CDFB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1436A921-C35A-5A40-8763-A4DD2122E5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12420" yWindow="7220" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="1440" yWindow="2140" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="87">
   <si>
     <t>Date</t>
   </si>
@@ -328,6 +328,20 @@
   </si>
   <si>
     <t>uTMAlvDlWAo</t>
+  </si>
+  <si>
+    <t>6:30 pm</t>
+  </si>
+  <si>
+    <t>Estimating Causality from Observational Data</t>
+  </si>
+  <si>
+    <t>Rq_od5KwqEA</t>
+  </si>
+  <si>
+    <t>Slides: https://github.com/jbryer/psa/raw/master/Slides/Intro_PSA.pdf &lt;br/&gt;
+Bookdown site: https://psa.bryer.org &lt;br/&gt;
+Github repo: https://github.com/jbryer/psa</t>
   </si>
 </sst>
 </file>
@@ -725,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA12B6D5-EAC3-1C40-AC8A-3C6A227098E4}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14:G14"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1054,27 +1068,32 @@
       </c>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>45042</v>
+        <v>45040</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="E15" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="6"/>
+      <c r="F15" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>45049</v>
+        <v>45042</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>11</v>
@@ -1083,7 +1102,7 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
         <v>29</v>
@@ -1092,7 +1111,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>45056</v>
+        <v>45049</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>11</v>
@@ -1101,7 +1120,7 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E17" t="s">
         <v>29</v>
@@ -1110,7 +1129,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>45063</v>
+        <v>45056</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>11</v>
@@ -1119,12 +1138,30 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>45063</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
         <v>41</v>
       </c>
-      <c r="E18" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="7"/>
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2023 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1436A921-C35A-5A40-8763-A4DD2122E5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86B00BE-E29D-EA4B-AB9A-C1FE6E87E794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="2140" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="90">
   <si>
     <t>Date</t>
   </si>
@@ -342,6 +342,15 @@
     <t>Slides: https://github.com/jbryer/psa/raw/master/Slides/Intro_PSA.pdf &lt;br/&gt;
 Bookdown site: https://psa.bryer.org &lt;br/&gt;
 Github repo: https://github.com/jbryer/psa</t>
+  </si>
+  <si>
+    <t>Intro_PSA</t>
+  </si>
+  <si>
+    <t>09-Logistic_Regression</t>
+  </si>
+  <si>
+    <t>YuFvBhquV-s</t>
   </si>
 </sst>
 </file>
@@ -742,7 +751,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1087,6 +1096,9 @@
       <c r="F15" s="9" t="s">
         <v>85</v>
       </c>
+      <c r="G15" t="s">
+        <v>87</v>
+      </c>
       <c r="H15" s="8" t="s">
         <v>86</v>
       </c>
@@ -1106,6 +1118,12 @@
       </c>
       <c r="E16" t="s">
         <v>29</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" t="s">
+        <v>88</v>
       </c>
       <c r="H16" s="6"/>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2023 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86B00BE-E29D-EA4B-AB9A-C1FE6E87E794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB59F11-EE54-3F4A-986E-469EFAA3E46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="2140" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="2360" yWindow="6400" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>Date</t>
   </si>
@@ -351,6 +351,12 @@
   </si>
   <si>
     <t>YuFvBhquV-s</t>
+  </si>
+  <si>
+    <t>09-Multiple_Regression</t>
+  </si>
+  <si>
+    <t>GdxQtRWlQk8</t>
   </si>
 </sst>
 </file>
@@ -751,7 +757,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1142,6 +1148,12 @@
       </c>
       <c r="E17" t="s">
         <v>29</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" t="s">
+        <v>90</v>
       </c>
       <c r="H17" s="6"/>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2023 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB59F11-EE54-3F4A-986E-469EFAA3E46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA54628-FED6-6F42-B70A-72532AB1E999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2360" yWindow="6400" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="94">
   <si>
     <t>Date</t>
   </si>
@@ -357,6 +357,12 @@
   </si>
   <si>
     <t>GdxQtRWlQk8</t>
+  </si>
+  <si>
+    <t>fb1Us-HK-rQ</t>
+  </si>
+  <si>
+    <t>10-Bayesian_Analysis</t>
   </si>
 </sst>
 </file>
@@ -757,7 +763,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1172,6 +1178,12 @@
       </c>
       <c r="E18" t="s">
         <v>29</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" t="s">
+        <v>93</v>
       </c>
       <c r="H18" s="6"/>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2023 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA54628-FED6-6F42-B70A-72532AB1E999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4F3F10-17BE-264F-82D8-BB6AC64E2380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2360" yWindow="6400" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="96">
   <si>
     <t>Date</t>
   </si>
@@ -363,6 +363,12 @@
   </si>
   <si>
     <t>10-Bayesian_Analysis</t>
+  </si>
+  <si>
+    <t>_UYlN4vQUHY</t>
+  </si>
+  <si>
+    <t>11-Final_Meetup</t>
   </si>
 </sst>
 </file>
@@ -763,7 +769,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1202,6 +1208,12 @@
       </c>
       <c r="E19" t="s">
         <v>29</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" t="s">
+        <v>95</v>
       </c>
       <c r="H19" s="7"/>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2023 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4F3F10-17BE-264F-82D8-BB6AC64E2380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121B734D-ADE5-8F4E-8F8B-E3175AD06442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2360" yWindow="6400" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -365,10 +365,10 @@
     <t>10-Bayesian_Analysis</t>
   </si>
   <si>
-    <t>_UYlN4vQUHY</t>
-  </si>
-  <si>
     <t>11-Final_Meetup</t>
+  </si>
+  <si>
+    <t>iDFJTBXou9w</t>
   </si>
 </sst>
 </file>
@@ -769,7 +769,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1210,10 +1210,10 @@
         <v>29</v>
       </c>
       <c r="F19" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" t="s">
         <v>94</v>
-      </c>
-      <c r="G19" t="s">
-        <v>95</v>
       </c>
       <c r="H19" s="7"/>
     </row>
